--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Desktop/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Documents/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC6F30-4018-8341-BE98-6B29E59C8CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031A70C5-A832-3543-97B0-A98C49AE3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="740" windowWidth="25000" windowHeight="17260" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="5640" yWindow="800" windowWidth="25000" windowHeight="17260" activeTab="1" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="matchings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>angelic_bracelet</t>
   </si>
@@ -229,13 +230,49 @@
   </si>
   <si>
     <t>mesmera_cocktail_ring</t>
+  </si>
+  <si>
+    <t>similar product</t>
+  </si>
+  <si>
+    <t>matrix_tennis_necklace</t>
+  </si>
+  <si>
+    <t>gema_drop_earrings, gema_necklace</t>
+  </si>
+  <si>
+    <t>gema_bracelet, gema_necklace, stone_hoop_earrings</t>
+  </si>
+  <si>
+    <t>gema_drop_earrings, gema_bracelet</t>
+  </si>
+  <si>
+    <t>matrix_tennis_necklace, matrix_ring,matrix_tennis_bracelet</t>
+  </si>
+  <si>
+    <t>matrix_drop_earrings, matrix_tennis_necklace, matrix_tennis_bracelet</t>
+  </si>
+  <si>
+    <t>matrix_drop_earrings, matrix_ring, matrix_tennis_necklace</t>
+  </si>
+  <si>
+    <t>matrix_drop_earrings, matrix_ring, matrix_tennis_bracelet</t>
+  </si>
+  <si>
+    <t>mesmera_cocktail_ring, mesmera_necklace</t>
+  </si>
+  <si>
+    <t>mesmera_bracelet, mesmera_necklace</t>
+  </si>
+  <si>
+    <t>mesmera_cocktail_ring, mesmera_bracelet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,6 +302,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -280,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -405,11 +450,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -420,15 +496,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -479,6 +546,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,394 +898,394 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="16">
         <v>155</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>230</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>135</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>175</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>195</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>195</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>195</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>195</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>350</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>195</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>125</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>95</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>250</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>400</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>135</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>950</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>125</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>125</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>115</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>75</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
@@ -1208,13 +1295,19 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
@@ -1230,4 +1323,183 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8564F4AF-88A2-A648-864F-3D051E8A9DD0}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Documents/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031A70C5-A832-3543-97B0-A98C49AE3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE7F98-1CD7-6E49-B193-7257427C89BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="800" windowWidth="25000" windowHeight="17260" activeTab="1" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="4820" yWindow="740" windowWidth="24580" windowHeight="17260" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t>angelic_bracelet</t>
   </si>
@@ -199,9 +199,6 @@
     <t>matrix _tennis_necklace</t>
   </si>
   <si>
-    <t>matrix tennis bracelet</t>
-  </si>
-  <si>
     <t>matrix tennis necklace</t>
   </si>
   <si>
@@ -266,6 +263,132 @@
   </si>
   <si>
     <t>mesmera_cocktail_ring, mesmera_bracelet</t>
+  </si>
+  <si>
+    <t>Star, White, Rose gold-tone plated</t>
+  </si>
+  <si>
+    <t>Swan, Blue, Rhodium plated</t>
+  </si>
+  <si>
+    <t>Small, White, Rhodium plated</t>
+  </si>
+  <si>
+    <t>Kite cut, Star, White, Rose gold-tone plated</t>
+  </si>
+  <si>
+    <t>Round cut, Star, White, Rose gold-tone plated</t>
+  </si>
+  <si>
+    <t>Pear cut, Pavé, White, Rhodium plated</t>
+  </si>
+  <si>
+    <t>stella necklace</t>
+  </si>
+  <si>
+    <t>dextera necklace</t>
+  </si>
+  <si>
+    <t>dextera hoop earrings</t>
+  </si>
+  <si>
+    <t>stella stud earrings</t>
+  </si>
+  <si>
+    <t>stella drop earrings</t>
+  </si>
+  <si>
+    <t>dextera bracelet</t>
+  </si>
+  <si>
+    <t>millenia cocktail ring</t>
+  </si>
+  <si>
+    <t>stella_necklace</t>
+  </si>
+  <si>
+    <t>dancing_swan_necklace</t>
+  </si>
+  <si>
+    <t>dextera_necklace</t>
+  </si>
+  <si>
+    <t>dextera_hoop_earrings</t>
+  </si>
+  <si>
+    <t>stella_stud_earrings</t>
+  </si>
+  <si>
+    <t>stella_drop_earrings</t>
+  </si>
+  <si>
+    <t>dextera_bracelet</t>
+  </si>
+  <si>
+    <t>millenia_cocktail_ring</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>Pavé, Mixed links, Black, Ruthenium plated</t>
+  </si>
+  <si>
+    <t>White, Rhodium plated</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Square cut, Gray, Ruthenium plated</t>
+  </si>
+  <si>
+    <t>millenia necklace</t>
+  </si>
+  <si>
+    <t>dancing swan necklace</t>
+  </si>
+  <si>
+    <t>dad bracelet</t>
+  </si>
+  <si>
+    <t>dad_bracelet</t>
+  </si>
+  <si>
+    <t>millenia_necklace</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>20-40</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>0-60</t>
+  </si>
+  <si>
+    <t>20-60</t>
+  </si>
+  <si>
+    <t>40-60</t>
+  </si>
+  <si>
+    <t>Swan, Black, Rose gold-tone plated</t>
+  </si>
+  <si>
+    <t>swarovski swan stud earrings</t>
+  </si>
+  <si>
+    <t>swarovski_swan_stud_earrings</t>
   </si>
 </sst>
 </file>
@@ -288,13 +411,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +422,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -485,17 +607,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -505,30 +621,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -538,34 +639,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,430 +1004,724 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="F2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="9">
         <v>155</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
-        <v>230</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5">
-        <v>135</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="10">
-        <v>175</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>195</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>400</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="20">
+        <v>155</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6">
+        <v>145</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3">
+        <v>195</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="F8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9">
+        <v>195</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3">
+        <v>195</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="13">
-        <v>195</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <v>195</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5">
-        <v>195</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
-        <v>195</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="10">
-        <v>350</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3">
+        <v>95</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9">
+        <v>125</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>125</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="6">
+        <v>115</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="6">
+        <v>125</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="6">
+        <v>135</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="20">
+        <v>129</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>230</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3">
+        <v>175</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="9">
         <v>195</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3">
+        <v>350</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="F21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3">
+        <v>950</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="9">
+        <v>115</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="6">
+        <v>175</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="20">
+        <v>155</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="6">
+        <v>175</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6">
+        <v>700</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3">
+        <v>135</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="9">
+        <v>125</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="10">
-        <v>125</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="10">
-        <v>95</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="10">
-        <v>250</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="10">
-        <v>400</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="3">
+        <v>135</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="6">
         <v>135</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="10">
-        <v>950</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5">
-        <v>125</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="5">
-        <v>125</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="5">
-        <v>115</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5">
-        <v>75</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="E32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E22">
-    <sortCondition ref="A3:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G32">
+    <sortCondition ref="B3:B32"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1329,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8564F4AF-88A2-A648-864F-3D051E8A9DD0}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,162 +1741,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="B13" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>2</v>
       </c>
     </row>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Documents/ChallengeNao24/coding/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Desktop/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE7F98-1CD7-6E49-B193-7257427C89BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA1AEBF-071C-E24D-A0A6-E481FF19E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="740" windowWidth="24580" windowHeight="17260" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="460" yWindow="1500" windowWidth="28720" windowHeight="17260" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="141">
   <si>
     <t>angelic_bracelet</t>
   </si>
@@ -389,13 +389,82 @@
   </si>
   <si>
     <t>swarovski_swan_stud_earrings</t>
+  </si>
+  <si>
+    <t>Crystals, Rhodium plated</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Rhodium plated, Zirconia</t>
+  </si>
+  <si>
+    <t>Rhodium plated</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Crystals, Ruthenium plated</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Crystals, Rhodium plated</t>
+  </si>
+  <si>
+    <t>Crystals, Gold-tone plated, Zirconia</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>multicolored</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Crystals, Ruthenium plated, Zirconia</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>Gold-tone plated, Zirconia</t>
+  </si>
+  <si>
+    <t>Rose gold-tone plated, Zirconia</t>
+  </si>
+  <si>
+    <t>Crystals, Crystal Pearl, Rose gold-tone plated, Zirconia</t>
+  </si>
+  <si>
+    <t>Crystals, Rhodium plated, Zirconia</t>
+  </si>
+  <si>
+    <t>Crystals, Crystal Pearl, Rose gold-tone plated</t>
+  </si>
+  <si>
+    <t>Crystals, Rose gold-tone plated</t>
+  </si>
+  <si>
+    <t>Gold-tone PVD, Zirconia</t>
+  </si>
+  <si>
+    <t>color of crystals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,6 +500,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -671,9 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -988,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,10 +1074,13 @@
     <col min="3" max="3" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="59.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="53.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1102,14 @@
       <c r="G2" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1049,183 +1131,231 @@
       <c r="G3" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D6" s="20">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="6">
+        <v>155</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="6">
+        <v>155</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="6">
-        <v>145</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="H8" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="20">
+        <v>115</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6">
+        <v>175</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3">
-        <v>195</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="G10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3">
+        <v>175</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9">
-        <v>195</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3">
-        <v>195</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3">
-        <v>95</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>107</v>
@@ -1233,45 +1363,57 @@
       <c r="G11" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>107</v>
@@ -1279,137 +1421,173 @@
       <c r="G13" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="H13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="6">
-        <v>115</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>195</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>195</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3">
+        <v>350</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="9">
+        <v>195</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3">
         <v>125</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="E18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="6">
-        <v>135</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="20">
-        <v>129</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>230</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>107</v>
@@ -1417,54 +1595,72 @@
       <c r="G19" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D20" s="9">
-        <v>195</v>
+        <v>400</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
@@ -1486,68 +1682,86 @@
       <c r="G22" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="9">
-        <v>115</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="20">
+        <v>135</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D24" s="6">
-        <v>175</v>
+        <v>700</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D25" s="20">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>107</v>
@@ -1555,171 +1769,219 @@
       <c r="G25" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="6">
         <v>175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D27" s="6">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28" s="3">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D29" s="9">
         <v>125</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3">
+        <v>115</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="6">
+        <v>129</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="3">
-        <v>135</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="3">
-        <v>75</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="6">
-        <v>135</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>111</v>
+      <c r="H32" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G32">
-    <sortCondition ref="B3:B32"/>
+    <sortCondition ref="A3:A32"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Desktop/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Documents/GitHub/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA1AEBF-071C-E24D-A0A6-E481FF19E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47155EBE-6757-9C42-974D-BDA9B25E524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1500" windowWidth="28720" windowHeight="17260" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="480" yWindow="1040" windowWidth="28720" windowHeight="17260" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,6 @@
     <t>Crystals, Rhodium plated</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -458,13 +455,16 @@
   </si>
   <si>
     <t>color of crystals</t>
+  </si>
+  <si>
+    <t>material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,25 +501,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -682,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -694,15 +682,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -737,16 +716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1063,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,49 +1049,49 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="I2" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>155</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1131,14 +1100,14 @@
       <c r="G3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I3" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1160,14 +1129,14 @@
       <c r="G4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1189,159 +1158,159 @@
       <c r="G5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6">
+        <v>145</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="I6" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="3">
+        <v>155</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="20">
-        <v>145</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3">
+        <v>155</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="6">
+        <v>115</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="6">
-        <v>155</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="6">
-        <v>155</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3">
+        <v>175</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="20">
-        <v>115</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="6">
-        <v>175</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1363,27 +1332,27 @@
       <c r="G11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>195</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1392,11 +1361,11 @@
       <c r="G12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1421,14 +1390,14 @@
       <c r="G13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1450,27 +1419,27 @@
       <c r="G14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="I14" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>195</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1479,14 +1448,14 @@
       <c r="G15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -1508,27 +1477,27 @@
       <c r="G16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="H16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="3">
         <v>195</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1537,27 +1506,27 @@
       <c r="G17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="H17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>125</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1566,14 +1535,14 @@
       <c r="G18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -1595,27 +1564,27 @@
       <c r="G19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="H19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1624,27 +1593,27 @@
       <c r="G20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="I20" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>135</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1653,15 +1622,15 @@
       <c r="G21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="H21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1682,44 +1651,44 @@
       <c r="G22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="3">
+        <v>135</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="20">
-        <v>135</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="I23" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1734,79 +1703,79 @@
       <c r="E24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="H24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="3">
         <v>135</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3">
+        <v>175</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="6">
-        <v>175</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="I26" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1821,21 +1790,21 @@
       <c r="E27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="H27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1856,27 +1825,27 @@
       <c r="G28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="I28" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="3">
         <v>125</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1885,27 +1854,27 @@
       <c r="G29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="H29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>115</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1914,44 +1883,44 @@
       <c r="G30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="H30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>129</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="H31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1972,11 +1941,11 @@
       <c r="G32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>120</v>
+      <c r="H32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2003,162 +1972,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>2</v>
       </c>
     </row>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Documents/GitHub/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47155EBE-6757-9C42-974D-BDA9B25E524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954824C5-2794-1244-AE34-1636CC7CB3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1040" windowWidth="28720" windowHeight="17260" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="480" yWindow="760" windowWidth="28720" windowHeight="17260" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="142">
   <si>
     <t>angelic_bracelet</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>material</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -1030,927 +1033,1021 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
-  <dimension ref="A2:I32"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="59.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="53.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="59.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="53.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>155</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>230</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>135</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>145</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>155</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>155</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>115</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>175</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>175</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <v>195</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>195</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>195</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>195</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>350</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>195</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <v>125</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>95</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>135</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>950</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>135</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <v>700</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>135</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>175</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <v>125</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>125</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>125</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <v>115</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>129</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>75</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G32">
-    <sortCondition ref="A3:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H32">
+    <sortCondition ref="B3:B32"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Documents/GitHub/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6E02E2-10AF-994F-9718-C058A62A5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E0587-EA96-2B40-AE71-7E1C90730CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17140" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="29400" windowHeight="17140" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="183">
   <si>
     <t>angelic_bracelet</t>
   </si>
@@ -226,9 +226,6 @@
     <t>mesmera_cocktail_ring</t>
   </si>
   <si>
-    <t>similar product</t>
-  </si>
-  <si>
     <t>Star, White, Rose gold-tone plated</t>
   </si>
   <si>
@@ -581,13 +578,19 @@
   </si>
   <si>
     <t>Legenda</t>
+  </si>
+  <si>
+    <t>similar product_1</t>
+  </si>
+  <si>
+    <t>similar product_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -637,6 +640,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -802,28 +813,6 @@
     <border>
       <left/>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="hair">
         <color indexed="64"/>
@@ -839,11 +828,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -872,20 +887,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1002,10 +1004,30 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1330,7 +1352,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,7 +1371,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>9</v>
@@ -1367,67 +1389,67 @@
         <v>11</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="42">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="50">
+      <c r="D2" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="45">
         <v>195</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="50" t="s">
+      <c r="F2" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+    </row>
+    <row r="3" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1447,947 +1469,947 @@
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="47">
+        <v>230</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="21">
+        <v>135</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="17">
+        <v>75</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="46">
+        <v>300</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="21">
+        <v>145</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="21">
+        <v>155</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="27">
+        <v>155</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="31">
+        <v>115</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="17">
+        <v>155</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="21">
+        <v>175</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="46">
+        <v>125</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="17">
+        <v>400</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="27">
+        <v>175</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="21">
+        <v>195</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="33">
+        <v>195</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="46">
+        <v>195</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="21">
+        <v>195</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="23">
+        <v>195</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="35">
+        <v>22</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="46">
+        <v>230</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="35">
+        <v>23</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="17">
+        <v>215</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="35">
+        <v>24</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="17">
+        <v>250</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>25</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="46">
+        <v>300</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="35">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="17">
+        <v>175</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="35">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="17">
+        <v>175</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="31">
+        <v>350</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="34">
+        <v>29</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="17">
+        <v>250</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="21">
+        <v>195</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="21">
+        <v>125</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="21">
         <v>95</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="52">
-        <v>230</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="26">
-        <v>135</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="22">
-        <v>75</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
-        <v>7</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="51">
-        <v>300</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="26">
-        <v>145</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="F33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="26">
-        <v>155</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="32">
-        <v>155</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="36">
-        <v>115</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
-        <v>12</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="22">
-        <v>155</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="26">
-        <v>175</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
-        <v>14</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="51">
-        <v>125</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
-        <v>15</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="22">
-        <v>400</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="32">
-        <v>175</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="26">
-        <v>195</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="38">
-        <v>195</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" s="36" t="s">
+      <c r="I33" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="39">
-        <v>19</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="51">
-        <v>195</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
-        <v>20</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="26">
-        <v>195</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="28">
-        <v>195</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="40">
-        <v>22</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="51">
-        <v>230</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
-        <v>23</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="22">
-        <v>215</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
-        <v>24</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="22">
-        <v>250</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="39">
-        <v>25</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="51">
-        <v>300</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="40">
-        <v>26</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="22">
-        <v>175</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
-        <v>27</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="22">
-        <v>175</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
-        <v>28</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="36">
-        <v>350</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="39">
-        <v>29</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="22">
-        <v>250</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
-        <v>30</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="26">
-        <v>195</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
-        <v>31</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="26">
-        <v>125</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
-        <v>32</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="26">
-        <v>95</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2407,19 +2429,19 @@
         <v>42</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2439,19 +2461,19 @@
         <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2471,275 +2493,275 @@
         <v>40</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40">
+    </row>
+    <row r="37" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="35">
         <v>36</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="E37" s="17">
         <v>89</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="23" t="s">
+      <c r="F37" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="3">
         <v>135</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="13">
+        <v>700</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
-        <v>38</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="I39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="18">
-        <v>700</v>
-      </c>
-      <c r="F39" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39">
-        <v>39</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="22">
+      <c r="E40" s="17">
         <v>550</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="3">
         <v>135</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="3">
         <v>175</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="3">
         <v>125</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="34">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="17">
+        <v>175</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39">
-        <v>43</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="22">
-        <v>175</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2759,19 +2781,19 @@
         <v>29</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2791,19 +2813,19 @@
         <v>30</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2823,51 +2845,51 @@
         <v>30</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48" s="3">
         <v>129</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2887,64 +2909,64 @@
         <v>31</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="61"/>
-    </row>
-    <row r="52" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="56"/>
+    </row>
+    <row r="52" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="36"/>
+      <c r="B53" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="16" t="s">
+    <row r="54" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="16" t="s">
+    <row r="55" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
     <sortCondition ref="B2:B49"/>
@@ -2956,103 +2978,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8564F4AF-88A2-A648-864F-3D051E8A9DD0}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.83203125" customWidth="1"/>
     <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
+      <c r="B1" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="66"/>
+    </row>
+    <row r="3" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="60"/>
+    </row>
+    <row r="4" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="60"/>
+    </row>
+    <row r="5" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="60"/>
+    </row>
+    <row r="7" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="60"/>
+    </row>
+    <row r="8" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="59"/>
+    </row>
+    <row r="9" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="60"/>
+    </row>
+    <row r="16" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="58"/>
+    </row>
+    <row r="19" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="63"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Documents/GitHub/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E0587-EA96-2B40-AE71-7E1C90730CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC33657F-AA05-0849-A4DA-F952418D66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="29400" windowHeight="17140" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="1440" yWindow="1000" windowWidth="29400" windowHeight="17140" activeTab="1" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>creativity_pendant</t>
   </si>
   <si>
-    <t>reativity pendant</t>
-  </si>
-  <si>
     <t>White, Rose gold-tone plated</t>
   </si>
   <si>
@@ -584,6 +581,9 @@
   </si>
   <si>
     <t>similar product_2</t>
+  </si>
+  <si>
+    <t>creativity pendant</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -854,11 +854,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1010,26 +1025,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1351,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1412,13 +1424,13 @@
         <v>34</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="45">
         <v>195</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>94</v>
@@ -1438,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -1556,13 +1568,13 @@
         <v>35</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="E7" s="17">
         <v>75</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>94</v>
@@ -1582,19 +1594,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="D8" s="48" t="s">
         <v>169</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>170</v>
       </c>
       <c r="E8" s="46">
         <v>300</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>94</v>
@@ -1603,7 +1615,7 @@
         <v>97</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J8" s="46" t="s">
         <v>106</v>
@@ -1806,13 +1818,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="46">
         <v>125</v>
@@ -1978,7 +1990,7 @@
         <v>195</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>94</v>
@@ -2062,19 +2074,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="46">
         <v>230</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>94</v>
@@ -2094,19 +2106,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="17">
         <v>215</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>94</v>
@@ -2115,7 +2127,7 @@
         <v>97</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>116</v>
@@ -2126,19 +2138,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" s="17">
         <v>250</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>94</v>
@@ -2147,7 +2159,7 @@
         <v>101</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J25" s="46" t="s">
         <v>116</v>
@@ -2618,7 +2630,7 @@
         <v>550</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>94</v>
@@ -2734,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>35</v>
@@ -2935,32 +2947,32 @@
     </row>
     <row r="51" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51" s="56"/>
     </row>
     <row r="52" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36"/>
       <c r="B53" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2980,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8564F4AF-88A2-A648-864F-3D051E8A9DD0}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2992,194 +3004,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="58"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="58"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="57"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="59"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="58"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="66"/>
-    </row>
-    <row r="3" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="60"/>
-    </row>
-    <row r="4" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="60"/>
-    </row>
-    <row r="5" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="B16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="58"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="60"/>
-    </row>
-    <row r="7" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="60"/>
-    </row>
-    <row r="8" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="59"/>
-    </row>
-    <row r="9" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="61"/>
-    </row>
-    <row r="10" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="60"/>
-    </row>
-    <row r="16" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="60"/>
-    </row>
-    <row r="17" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="58"/>
-    </row>
-    <row r="19" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="61"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="10"/>
     </row>
   </sheetData>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomosanti/Documents/GitHub/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E58AB-AF82-2244-B75A-06ACE49B40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35506B74-3F6F-E84C-A64B-7084F9920456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="960" windowWidth="29400" windowHeight="17140" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomosanti/Documents/GitHub/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E48840-19EE-F54D-A66D-506679C875D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125621E2-B5DD-3842-8DAD-95E51AD1DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="960" windowWidth="29400" windowHeight="17140" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="190" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomosanti/Documents/GitHub/ChallengeNao24/coding/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiade\OneDrive\Desktop\nao24-github\ChallengeNao24\coding\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125621E2-B5DD-3842-8DAD-95E51AD1DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34915F03-CF34-40F5-895F-2C91658F3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="29400" windowHeight="17140" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="176">
   <si>
     <t>angelic_bracelet</t>
   </si>
@@ -478,9 +478,6 @@
     <t>creativity_pendant</t>
   </si>
   <si>
-    <t>reativity pendant</t>
-  </si>
-  <si>
     <t>White, Rose gold-tone plated</t>
   </si>
   <si>
@@ -565,14 +562,14 @@
     <t>similar product_2</t>
   </si>
   <si>
-    <t>cambia</t>
+    <t>creativity pendant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -644,12 +641,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -663,6 +654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD883FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,72 +870,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +938,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -986,9 +983,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1026,7 +1023,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1132,7 +1129,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1274,7 +1271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1284,25 +1281,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="190" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="59.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="53.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="34.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="1"/>
+    <col min="6" max="6" width="59.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.796875" style="1"/>
+    <col min="9" max="9" width="53.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.296875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>125</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="20" customFormat="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1366,519 +1363,519 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+    <row r="3" spans="1:10" s="20" customFormat="1">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="26">
         <v>230</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+    <row r="4" spans="1:10" s="20" customFormat="1">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>135</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="20" customFormat="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>145</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+    <row r="6" spans="1:10" s="20" customFormat="1">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>155</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+    <row r="7" spans="1:10" s="20" customFormat="1">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>155</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+    <row r="8" spans="1:10" s="20" customFormat="1">
+      <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="40">
         <v>155</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:10" s="20" customFormat="1">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>175</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="20" customFormat="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>175</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+    <row r="11" spans="1:10" s="20" customFormat="1">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>195</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+    <row r="12" spans="1:10" s="20" customFormat="1">
+      <c r="A12" s="39">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="43">
         <v>195</v>
       </c>
-      <c r="F12" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="43" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+    <row r="13" spans="1:10" s="20" customFormat="1">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>195</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+    <row r="14" spans="1:10" s="20" customFormat="1">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="26">
         <v>195</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="21" t="s">
+      <c r="G14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+    <row r="15" spans="1:10" s="20" customFormat="1">
+      <c r="A15" s="39">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="40">
         <v>250</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>195</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+    <row r="17" spans="1:10">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>125</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+    <row r="18" spans="1:10">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>95</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="G18" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1894,7 +1891,7 @@
       <c r="E19" s="6">
         <v>400</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="37" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1910,7 +1907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1942,7 +1939,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1990,7 +1987,7 @@
       <c r="E22" s="6">
         <v>135</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="37" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -2006,39 +2003,39 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+    <row r="23" spans="1:10">
+      <c r="A23" s="39">
         <v>22</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="40">
+        <v>300</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="15">
-        <v>300</v>
-      </c>
-      <c r="F23" s="36" t="s">
+      <c r="G23" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2102,7 +2099,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2134,7 +2131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2166,7 +2163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="15" customFormat="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="15" customFormat="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="15" customFormat="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2262,7 +2259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="15" customFormat="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2294,391 +2291,391 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="16" t="s">
+    <row r="32" spans="1:10" s="15" customFormat="1">
+      <c r="A32" s="39">
+        <v>36</v>
+      </c>
+      <c r="B32" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="40">
+        <v>75</v>
+      </c>
+      <c r="F32" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="15">
-        <v>75</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="15" t="s">
+      <c r="G32" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26">
+    <row r="33" spans="1:10" s="15" customFormat="1">
+      <c r="A33" s="38">
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="E33" s="40">
+        <v>125</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="15" customFormat="1">
+      <c r="A34" s="38">
+        <v>42</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="40">
+        <v>400</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="15" customFormat="1">
+      <c r="A35" s="39">
+        <v>39</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="40">
+        <v>230</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="15" customFormat="1">
+      <c r="A36" s="38">
+        <v>32</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="40">
+        <v>215</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="15" customFormat="1">
+      <c r="A37" s="39">
+        <v>40</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="40">
+        <v>250</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="15" customFormat="1">
+      <c r="A38" s="38">
+        <v>33</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="40">
+        <v>300</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="15" customFormat="1">
+      <c r="A39" s="39">
+        <v>41</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="40">
+        <v>175</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="15" customFormat="1">
+      <c r="A40" s="38">
+        <v>38</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="40">
+        <v>175</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="15" customFormat="1">
+      <c r="A41" s="39">
         <v>34</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="15">
-        <v>125</v>
-      </c>
-      <c r="F33" s="16" t="s">
+      <c r="B41" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="40">
+        <v>89</v>
+      </c>
+      <c r="F41" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="16" t="s">
+      <c r="G41" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J41" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="15" t="s">
+    <row r="42" spans="1:10" s="15" customFormat="1">
+      <c r="A42" s="38">
+        <v>37</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="40">
+        <v>550</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="15" customFormat="1">
+      <c r="A43" s="39">
         <v>35</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="15">
-        <v>400</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" s="15">
-        <v>230</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="15">
-        <v>215</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="15" t="s">
+      <c r="B43" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="40">
+        <v>175</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="15">
-        <v>250</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="15">
-        <v>300</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="15">
-        <v>175</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="15">
-        <v>175</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="15">
-        <v>89</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="15">
-        <v>550</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="15">
-        <v>175</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="15" t="s">
+      <c r="J43" s="40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="15" customFormat="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2690,40 +2687,40 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="39"/>
-    </row>
-    <row r="46" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="11" customFormat="1">
+      <c r="A45" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="29"/>
+    </row>
+    <row r="46" spans="1:10" s="11" customFormat="1">
       <c r="A46" s="12"/>
       <c r="B46" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="11" customFormat="1">
+      <c r="A47" s="47"/>
+      <c r="B47" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="11" customFormat="1">
       <c r="A48" s="13"/>
       <c r="B48" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="11" customFormat="1">
+      <c r="A49" s="24"/>
+      <c r="B49" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="29"/>
-      <c r="B49" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:2" s="11" customFormat="1"/>
+    <row r="51" spans="1:2" s="11" customFormat="1"/>
+    <row r="52" spans="1:2" s="11" customFormat="1"/>
+    <row r="53" spans="1:2" s="11" customFormat="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
     <sortCondition ref="A2:A43"/>
@@ -2741,202 +2738,202 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.796875" customWidth="1"/>
+    <col min="2" max="2" width="59.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="41"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="B3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="41"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="41"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="C7" s="31"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="40"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="41"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="44" t="s">
+      <c r="B18" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="44"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="33"/>
       <c r="B20" s="10"/>
     </row>
   </sheetData>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiade\OneDrive\Desktop\nao24-github\ChallengeNao24\coding\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34915F03-CF34-40F5-895F-2C91658F3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176DD9C7-4ECD-4CE3-A3F7-DE4FA8FA32DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="174">
   <si>
     <t>angelic_bracelet</t>
   </si>
@@ -542,12 +542,6 @@
   </si>
   <si>
     <t>nuovo elenco</t>
-  </si>
-  <si>
-    <t>presenti in entrambi gli elenchi ma sono due prodotti diversi</t>
-  </si>
-  <si>
-    <t>gioelli non presenti nel sito</t>
   </si>
   <si>
     <t>stilla_necklace</t>
@@ -632,7 +626,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,25 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD883FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -870,12 +852,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -888,12 +864,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -904,18 +874,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,24 +898,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -968,6 +947,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFD883FF"/>
     </mruColors>
   </colors>
@@ -1281,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -1331,7 +1311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1">
+    <row r="2" spans="1:10" s="16" customFormat="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1363,515 +1343,515 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1">
-      <c r="A3" s="18">
+    <row r="3" spans="1:10" s="16" customFormat="1">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="43">
         <v>230</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1">
-      <c r="A4" s="16">
+    <row r="4" spans="1:10" s="16" customFormat="1">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>135</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1">
-      <c r="A5" s="14">
+    <row r="5" spans="1:10" s="16" customFormat="1">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>145</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1">
-      <c r="A6" s="16">
+    <row r="6" spans="1:10" s="16" customFormat="1">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>155</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1">
-      <c r="A7" s="16">
+    <row r="7" spans="1:10" s="16" customFormat="1">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>155</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1">
-      <c r="A8" s="38">
+    <row r="8" spans="1:10" s="16" customFormat="1">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="32">
         <v>155</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1">
-      <c r="A9" s="16">
+    <row r="9" spans="1:10" s="16" customFormat="1">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>175</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1">
-      <c r="A10" s="14">
+    <row r="10" spans="1:10" s="16" customFormat="1">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>175</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="20" customFormat="1">
-      <c r="A11" s="16">
+    <row r="11" spans="1:10" s="16" customFormat="1">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>195</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="20" customFormat="1">
-      <c r="A12" s="39">
+    <row r="12" spans="1:10" s="16" customFormat="1">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="35">
         <v>195</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="40" t="s">
+      <c r="G12" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="20" customFormat="1">
-      <c r="A13" s="16">
+    <row r="13" spans="1:10" s="16" customFormat="1">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>195</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1">
-      <c r="A14" s="25">
+    <row r="14" spans="1:10" s="16" customFormat="1">
+      <c r="A14" s="42">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="43">
         <v>195</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="43" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="20" customFormat="1">
-      <c r="A15" s="39">
+    <row r="15" spans="1:10" s="16" customFormat="1">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="32">
         <v>250</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="40" t="s">
+      <c r="G15" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="32" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>195</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="17" t="s">
+      <c r="G16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>125</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>95</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="G18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="18" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1891,7 +1871,7 @@
       <c r="E19" s="6">
         <v>400</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="29" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1987,7 +1967,7 @@
       <c r="E22" s="6">
         <v>135</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="29" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -2004,34 +1984,34 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="39">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="32">
         <v>300</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="40" t="s">
+      <c r="G23" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="32" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2131,7 +2111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="15" customFormat="1">
+    <row r="27" spans="1:10" s="13" customFormat="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2163,7 +2143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="15" customFormat="1">
+    <row r="28" spans="1:10" s="13" customFormat="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2195,7 +2175,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="15" customFormat="1">
+    <row r="29" spans="1:10" s="13" customFormat="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2227,7 +2207,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="15" customFormat="1">
+    <row r="30" spans="1:10" s="13" customFormat="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2259,7 +2239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1">
+    <row r="31" spans="1:10" s="13" customFormat="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2291,391 +2271,391 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="15" customFormat="1">
-      <c r="A32" s="39">
+    <row r="32" spans="1:10" s="13" customFormat="1">
+      <c r="A32" s="31">
         <v>36</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="32">
+        <v>75</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="13" customFormat="1">
+      <c r="A33" s="30">
+        <v>31</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="32">
+        <v>125</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="13" customFormat="1">
+      <c r="A34" s="30">
+        <v>42</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="32">
+        <v>400</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="13" customFormat="1">
+      <c r="A35" s="31">
+        <v>39</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="32">
+        <v>230</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="13" customFormat="1">
+      <c r="A36" s="30">
+        <v>32</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="32">
+        <v>215</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="13" customFormat="1">
+      <c r="A37" s="31">
+        <v>40</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="32">
+        <v>250</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="13" customFormat="1">
+      <c r="A38" s="30">
+        <v>33</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="32">
+        <v>300</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="13" customFormat="1">
+      <c r="A39" s="31">
+        <v>41</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="32">
         <v>175</v>
       </c>
-      <c r="E32" s="40">
-        <v>75</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="40" t="s">
+      <c r="F39" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="13" customFormat="1">
+      <c r="A40" s="30">
+        <v>38</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="32">
+        <v>175</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="13" customFormat="1">
+      <c r="A41" s="31">
+        <v>34</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="32">
+        <v>89</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" s="40" t="s">
+      <c r="I41" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="15" customFormat="1">
-      <c r="A33" s="38">
-        <v>31</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="40" t="s">
+    <row r="42" spans="1:10" s="13" customFormat="1">
+      <c r="A42" s="30">
+        <v>37</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="40">
-        <v>125</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="15" customFormat="1">
-      <c r="A34" s="38">
-        <v>42</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="40" t="s">
+      <c r="D42" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="32">
+        <v>550</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1">
+      <c r="A43" s="31">
         <v>35</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="40">
-        <v>400</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="15" customFormat="1">
-      <c r="A35" s="39">
-        <v>39</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="40">
-        <v>230</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="15" customFormat="1">
-      <c r="A36" s="38">
-        <v>32</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="40">
-        <v>215</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="40" t="s">
+      <c r="B43" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="32">
+        <v>175</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="15" customFormat="1">
-      <c r="A37" s="39">
-        <v>40</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="40">
-        <v>250</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="15" customFormat="1">
-      <c r="A38" s="38">
-        <v>33</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="40">
-        <v>300</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="15" customFormat="1">
-      <c r="A39" s="39">
-        <v>41</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="40">
-        <v>175</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="15" customFormat="1">
-      <c r="A40" s="38">
-        <v>38</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="40">
-        <v>175</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="15" customFormat="1">
-      <c r="A41" s="39">
-        <v>34</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="40">
-        <v>89</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="15" customFormat="1">
-      <c r="A42" s="38">
-        <v>37</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="40">
-        <v>550</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="15" customFormat="1">
-      <c r="A43" s="39">
-        <v>35</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="40">
-        <v>175</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="40" t="s">
+      <c r="J43" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="15" customFormat="1">
+    <row r="44" spans="1:10" s="13" customFormat="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2688,39 +2668,33 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1">
-      <c r="A45" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="29"/>
+      <c r="A45" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1">
-      <c r="A46" s="12"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1">
-      <c r="A47" s="47"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="11" customFormat="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="11" customFormat="1"/>
-    <row r="51" spans="1:2" s="11" customFormat="1"/>
-    <row r="52" spans="1:2" s="11" customFormat="1"/>
-    <row r="53" spans="1:2" s="11" customFormat="1"/>
+      <c r="A48" s="40"/>
+    </row>
+    <row r="49" spans="1:1" s="11" customFormat="1">
+      <c r="A49" s="40"/>
+    </row>
+    <row r="50" spans="1:1" s="11" customFormat="1"/>
+    <row r="51" spans="1:1" s="11" customFormat="1"/>
+    <row r="52" spans="1:1" s="11" customFormat="1"/>
+    <row r="53" spans="1:1" s="11" customFormat="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
     <sortCondition ref="A2:A43"/>
@@ -2746,194 +2720,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>174</v>
+      <c r="B1" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="17"/>
+      <c r="B18" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="10"/>
     </row>
   </sheetData>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiade\OneDrive\Desktop\nao24-github\ChallengeNao24\coding\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\GitHub\ChallengeNao24\coding\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176DD9C7-4ECD-4CE3-A3F7-DE4FA8FA32DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E207525F-E6F0-4E3A-96A3-4F0ED3748BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
@@ -895,9 +895,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -918,9 +915,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -937,6 +931,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +961,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1003,7 +1001,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1109,7 +1107,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1251,7 +1249,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1262,7 +1260,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -1344,34 +1342,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1">
-      <c r="A3" s="46">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <v>230</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="41" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1408,148 +1406,148 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="16" customFormat="1">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="15">
-        <v>145</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="A5" s="29">
+        <v>36</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="31">
+        <v>75</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="16" customFormat="1">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="18">
-        <v>155</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>106</v>
+      <c r="A6" s="30">
+        <v>22</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="34">
+        <v>300</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1">
       <c r="A7" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E7" s="15">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="16" customFormat="1">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="32">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="15">
         <v>155</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="32" t="s">
+      <c r="F8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>103</v>
+      <c r="I8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="16" customFormat="1">
       <c r="A9" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E9" s="18">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>83</v>
@@ -1561,1098 +1559,1098 @@
         <v>96</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="16" customFormat="1">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="15">
-        <v>175</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>111</v>
+      <c r="A10" s="29">
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="31">
+        <v>155</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="16" customFormat="1">
       <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="15">
+        <v>175</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="16" customFormat="1">
+      <c r="A12" s="30">
+        <v>31</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="34">
+        <v>125</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="16" customFormat="1">
+      <c r="A13" s="30">
+        <v>42</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="31">
+        <v>400</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="16" customFormat="1">
+      <c r="A14" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="18">
+        <v>175</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="16" customFormat="1">
+      <c r="A15" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E15" s="15">
         <v>195</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="G15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="16" customFormat="1">
-      <c r="A12" s="31">
+    <row r="16" spans="1:10">
+      <c r="A16" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E16" s="34">
         <v>195</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="32" t="s">
+      <c r="G16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I16" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J16" s="34" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="16" customFormat="1">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="15">
-        <v>195</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="16" customFormat="1">
-      <c r="A14" s="42">
-        <v>13</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="43">
-        <v>195</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="16" customFormat="1">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="32">
-        <v>250</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="18">
-        <v>195</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="15">
+        <v>195</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="44">
+        <v>13</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="E18" s="43">
+        <v>195</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="30">
+        <v>39</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="34">
+        <v>230</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="30">
+        <v>32</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="31">
+        <v>215</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="30">
+        <v>40</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="31">
+        <v>250</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="29">
+        <v>33</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="34">
+        <v>300</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="30">
+        <v>41</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="31">
+        <v>175</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="30">
+        <v>38</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="31">
+        <v>175</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="29">
+        <v>14</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="31">
+        <v>250</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="14">
+        <v>15</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="15">
+        <v>195</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1">
+      <c r="A27" s="12">
+        <v>16</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E27" s="15">
         <v>125</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="G27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J27" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="14">
+    <row r="28" spans="1:10" s="13" customFormat="1">
+      <c r="A28" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E28" s="15">
         <v>95</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F28" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="G28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I28" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J28" s="15" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="6">
-        <v>400</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="3">
-        <v>135</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3">
-        <v>950</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="6">
-        <v>135</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="31">
-        <v>22</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="32">
-        <v>300</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="3">
-        <v>135</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="3">
-        <v>175</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="3">
-        <v>125</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="13" customFormat="1">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3">
-        <v>125</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="13" customFormat="1">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="3">
-        <v>125</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="13" customFormat="1">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="13" customFormat="1">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="13" customFormat="1">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E31" s="3">
-        <v>75</v>
+        <v>950</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="13" customFormat="1">
-      <c r="A32" s="31">
+      <c r="A32" s="30">
+        <v>34</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="31">
+        <v>89</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="13" customFormat="1">
+      <c r="A33" s="5">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="3">
+        <v>135</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="13" customFormat="1">
+      <c r="A34" s="29">
+        <v>37</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="32">
+      <c r="D34" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="31">
+        <v>550</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="13" customFormat="1">
+      <c r="A35" s="2">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="3">
+        <v>135</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="13" customFormat="1">
+      <c r="A36" s="5">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="3">
+        <v>175</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="13" customFormat="1">
+      <c r="A37" s="2">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="3">
+        <v>125</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="13" customFormat="1">
+      <c r="A38" s="29">
+        <v>35</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="31">
+        <v>175</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="13" customFormat="1">
+      <c r="A39" s="2">
+        <v>26</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="3">
+        <v>125</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="13" customFormat="1">
+      <c r="A40" s="5">
+        <v>27</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="3">
+        <v>125</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="13" customFormat="1">
+      <c r="A41" s="2">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3">
+        <v>115</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="13" customFormat="1">
+      <c r="A42" s="5">
+        <v>29</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>129</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1">
+      <c r="A43" s="2">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3">
         <v>75</v>
       </c>
-      <c r="F32" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" s="32" t="s">
+      <c r="F43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="13" customFormat="1">
-      <c r="A33" s="30">
-        <v>31</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="32">
-        <v>125</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="13" customFormat="1">
-      <c r="A34" s="30">
-        <v>42</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="32">
-        <v>400</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="13" customFormat="1">
-      <c r="A35" s="31">
-        <v>39</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="32">
-        <v>230</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="13" customFormat="1">
-      <c r="A36" s="30">
-        <v>32</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="32">
-        <v>215</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="13" customFormat="1">
-      <c r="A37" s="31">
-        <v>40</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="32">
-        <v>250</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="13" customFormat="1">
-      <c r="A38" s="30">
-        <v>33</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="32">
-        <v>300</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="J38" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="13" customFormat="1">
-      <c r="A39" s="31">
-        <v>41</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="32">
-        <v>175</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J39" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="13" customFormat="1">
-      <c r="A40" s="30">
-        <v>38</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="32">
-        <v>175</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="13" customFormat="1">
-      <c r="A41" s="31">
-        <v>34</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="32">
-        <v>89</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="13" customFormat="1">
-      <c r="A42" s="30">
-        <v>37</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="32">
-        <v>550</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="13" customFormat="1">
-      <c r="A43" s="31">
-        <v>35</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="32">
-        <v>175</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="13" customFormat="1">
@@ -2674,30 +2672,26 @@
       <c r="B45" s="21"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1">
-      <c r="A46" s="41"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1">
-      <c r="A47" s="39"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="11" customFormat="1">
-      <c r="A48" s="40"/>
-    </row>
-    <row r="49" spans="1:1" s="11" customFormat="1">
-      <c r="A49" s="40"/>
-    </row>
-    <row r="50" spans="1:1" s="11" customFormat="1"/>
-    <row r="51" spans="1:1" s="11" customFormat="1"/>
-    <row r="52" spans="1:1" s="11" customFormat="1"/>
-    <row r="53" spans="1:1" s="11" customFormat="1"/>
+    <row r="48" spans="1:10" s="11" customFormat="1"/>
+    <row r="49" s="11" customFormat="1"/>
+    <row r="50" s="11" customFormat="1"/>
+    <row r="51" s="11" customFormat="1"/>
+    <row r="52" s="11" customFormat="1"/>
+    <row r="53" s="11" customFormat="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
-    <sortCondition ref="A2:A43"/>
+    <sortCondition ref="B2:B43"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coding/dataset/dataset.xlsx
+++ b/coding/dataset/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\GitHub\ChallengeNao24\coding\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mascalzoni.s/Documents/GitHub/ChallengeNao24/coding/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E207525F-E6F0-4E3A-96A3-4F0ED3748BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32273493-BC08-D545-8380-3187853B484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17120" activeTab="1" xr2:uid="{DEBDBBB0-A486-E642-A06E-38860BF9CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="174">
   <si>
     <t>angelic_bracelet</t>
   </si>
@@ -563,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,14 +613,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -819,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -884,7 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +928,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -961,9 +954,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1001,7 +994,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1107,7 +1100,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1249,7 +1242,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1259,25 +1252,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69ED41-DE86-7444-9225-823580E4F5E3}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
-    <col min="2" max="2" width="34.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="1"/>
-    <col min="6" max="6" width="59.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.796875" style="1"/>
-    <col min="9" max="9" width="53.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.296875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="59.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="53.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>125</v>
       </c>
@@ -1309,7 +1302,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="16" customFormat="1">
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1341,39 +1334,39 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1">
-      <c r="A3" s="44">
+    <row r="3" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>230</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="43" t="s">
+      <c r="G3" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="16" customFormat="1">
+    <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1405,71 +1398,71 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="16" customFormat="1">
-      <c r="A5" s="29">
+    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28">
         <v>36</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>75</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="G5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="16" customFormat="1">
-      <c r="A6" s="30">
+    <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
         <v>22</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>300</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="16" customFormat="1">
+    <row r="7" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1501,7 +1494,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="16" customFormat="1">
+    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1533,7 +1526,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1">
+    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -1565,39 +1558,39 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="16" customFormat="1">
-      <c r="A10" s="29">
+    <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>155</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="G10" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="16" customFormat="1">
+    <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -1629,71 +1622,71 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="16" customFormat="1">
-      <c r="A12" s="30">
+    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
         <v>31</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="33">
         <v>125</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="31" t="s">
+      <c r="G12" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="16" customFormat="1">
-      <c r="A13" s="30">
+    <row r="13" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
         <v>42</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>400</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="31" t="s">
+      <c r="G13" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="16" customFormat="1">
+    <row r="14" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>9</v>
       </c>
@@ -1725,7 +1718,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="16" customFormat="1">
+    <row r="15" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1757,39 +1750,39 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="29">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
         <v>11</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <v>195</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="31" t="s">
+      <c r="G16" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>12</v>
       </c>
@@ -1821,263 +1814,263 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="44">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="43">
         <v>13</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <v>195</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="43" t="s">
+      <c r="G18" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="30">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
         <v>39</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <v>230</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="31" t="s">
+      <c r="G19" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="30">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
         <v>32</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <v>215</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="30">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
         <v>40</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <v>250</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="29">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
         <v>33</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <v>300</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="31" t="s">
+      <c r="G22" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="30">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
         <v>41</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <v>175</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="31" t="s">
+      <c r="G23" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="30">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
         <v>38</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <v>175</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="31" t="s">
+      <c r="G24" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="29">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
         <v>14</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="30">
         <v>250</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="31" t="s">
+      <c r="G25" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>15</v>
       </c>
@@ -2109,7 +2102,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="13" customFormat="1">
+    <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>16</v>
       </c>
@@ -2141,7 +2134,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="13" customFormat="1">
+    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>17</v>
       </c>
@@ -2173,7 +2166,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="13" customFormat="1">
+    <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>18</v>
       </c>
@@ -2205,7 +2198,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="13" customFormat="1">
+    <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2237,7 +2230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="13" customFormat="1">
+    <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>20</v>
       </c>
@@ -2269,39 +2262,39 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="13" customFormat="1">
-      <c r="A32" s="30">
+    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
         <v>34</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <v>89</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="31" t="s">
+      <c r="G32" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="13" customFormat="1">
+    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>21</v>
       </c>
@@ -2333,39 +2326,39 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="13" customFormat="1">
-      <c r="A34" s="29">
+    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28">
         <v>37</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <v>550</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="31" t="s">
+      <c r="G34" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="13" customFormat="1">
+    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>23</v>
       </c>
@@ -2397,7 +2390,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="13" customFormat="1">
+    <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>24</v>
       </c>
@@ -2429,7 +2422,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="13" customFormat="1">
+    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>25</v>
       </c>
@@ -2461,39 +2454,39 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1">
-      <c r="A38" s="29">
+    <row r="38" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28">
         <v>35</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="30">
         <v>175</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="31" t="s">
+      <c r="G38" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="13" customFormat="1">
+    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>26</v>
       </c>
@@ -2525,7 +2518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1">
+    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>27</v>
       </c>
@@ -2557,7 +2550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="13" customFormat="1">
+    <row r="41" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>28</v>
       </c>
@@ -2589,7 +2582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="13" customFormat="1">
+    <row r="42" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>29</v>
       </c>
@@ -2621,7 +2614,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="13" customFormat="1">
+    <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>30</v>
       </c>
@@ -2653,7 +2646,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="13" customFormat="1">
+    <row r="44" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2665,30 +2658,30 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10" s="11" customFormat="1">
+    <row r="45" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="1:10" s="11" customFormat="1">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="38"/>
       <c r="B46" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="11" customFormat="1">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="37"/>
       <c r="B47" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="11" customFormat="1"/>
-    <row r="49" s="11" customFormat="1"/>
-    <row r="50" s="11" customFormat="1"/>
-    <row r="51" s="11" customFormat="1"/>
-    <row r="52" s="11" customFormat="1"/>
-    <row r="53" s="11" customFormat="1"/>
+    <row r="48" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
     <sortCondition ref="B2:B43"/>
@@ -2702,114 +2695,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8564F4AF-88A2-A648-864F-3D051E8A9DD0}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.796875" customWidth="1"/>
-    <col min="2" max="2" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.19921875" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>160</v>
+      <c r="B3" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>162</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>160</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>146</v>
+      <c r="B6" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>153</v>
       </c>
@@ -2820,7 +2815,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>155</v>
       </c>
@@ -2831,7 +2826,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>131</v>
       </c>
@@ -2842,18 +2837,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>126</v>
       </c>
@@ -2862,46 +2855,44 @@
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>146</v>
+      </c>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="23"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="47"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
       <c r="B20" s="10"/>
     </row>
   </sheetData>
